--- a/nix_shjarback_ois_mortality_preprint/data/colorado/co_county_hospital.xlsx
+++ b/nix_shjarback_ois_mortality_preprint/data/colorado/co_county_hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnix\Box\MANUSCRIPTS\In Preparation\Nix &amp; Shjarback - County OIS Fatality Rates\Data\Colorado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/jnix_unomaha_edu/Documents/MANUSCRIPTS/Under_Review/Nix &amp; Shjarback - County OIS Fatality Rates/Data/Colorado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72081E40-A44B-4888-A717-576D4AE89D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D7E250E4-43A8-1042-9B15-0D644E34DCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{002FE52C-8BC0-4497-9AC2-02314C3F9272}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="825" windowWidth="13815" windowHeight="15720" xr2:uid="{A3CA81AA-2118-0A42-BBA2-6368B3EB8A54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3CA81AA-2118-0A42-BBA2-6368B3EB8A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Adams</t>
   </si>
@@ -219,6 +219,9 @@
     <t>county_name</t>
   </si>
   <si>
+    <t>fips</t>
+  </si>
+  <si>
     <t>level1_dum</t>
   </si>
   <si>
@@ -231,7 +234,13 @@
     <t>total_level2</t>
   </si>
   <si>
-    <t>county</t>
+    <t>pop_2010</t>
+  </si>
+  <si>
+    <t>rucc_2013</t>
+  </si>
+  <si>
+    <t>metro_non</t>
   </si>
   <si>
     <t>Broomfield</t>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF543B49-7F26-BC44-A309-21868575FEDA}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,27 +618,36 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,8 +666,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>441603</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,8 +695,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>15445</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,8 +724,17 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>572003</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,8 +753,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>12084</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,8 +782,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>3788</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -748,48 +811,79 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6499</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8014</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>55889</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>8013</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8014</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>294567</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +902,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>17809</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,8 +931,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1836</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,8 +960,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>9088</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -868,8 +989,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>8256</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -888,8 +1018,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>3524</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,8 +1047,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>5823</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -928,8 +1076,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>4255</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -948,8 +1105,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>30952</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -968,8 +1134,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>600158</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -988,8 +1163,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2064</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1008,8 +1192,17 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>285465</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1028,8 +1221,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>52197</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1048,8 +1250,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>23086</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1068,8 +1279,17 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>622263</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1088,8 +1308,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>46824</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1108,8 +1337,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>56389</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1128,8 +1366,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>5441</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1148,8 +1395,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>14843</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1168,8 +1424,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>15324</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1188,8 +1453,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>843</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1208,8 +1482,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>6711</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1228,8 +1511,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1394</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1248,8 +1540,17 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>534543</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1268,8 +1569,17 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1398</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1288,8 +1598,17 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>8270</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1308,8 +1627,17 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>7310</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1328,8 +1656,17 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>51334</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1348,8 +1685,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>299630</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1368,8 +1714,17 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>15507</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1388,8 +1743,17 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>5467</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1408,8 +1772,17 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>22709</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1428,8 +1801,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>146723</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1448,8 +1830,17 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>712</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1468,8 +1859,17 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>13795</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1488,8 +1888,17 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>25535</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1508,8 +1917,17 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>41276</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1528,8 +1946,17 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>28159</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1548,8 +1975,17 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>18831</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1568,8 +2004,17 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>4436</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -1588,8 +2033,17 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>16206</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -1608,8 +2062,17 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>4442</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -1628,8 +2091,17 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>17148</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1648,8 +2120,17 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>12551</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1668,8 +2149,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>159063</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1688,8 +2178,17 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>6666</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -1708,8 +2207,17 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>11982</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1728,8 +2236,17 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>23509</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1748,8 +2265,17 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>6108</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1768,8 +2294,17 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>699</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -1788,8 +2323,17 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>7359</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1808,8 +2352,17 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>2379</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -1828,8 +2381,17 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>27994</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -1848,8 +2410,17 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>23350</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -1868,8 +2439,17 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>4814</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -1888,8 +2468,17 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>252825</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -1906,6 +2495,15 @@
         <v>0</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>10043</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
     </row>
